--- a/output.xlsx
+++ b/output.xlsx
@@ -1647,10 +1647,10 @@
         <v>79</v>
       </c>
       <c r="AK5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AL5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AM5" t="s">
         <v>82</v>
@@ -1674,7 +1674,7 @@
         <v>84</v>
       </c>
       <c r="AT5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AU5" t="s">
         <v>79</v>
@@ -1698,10 +1698,10 @@
         <v>79</v>
       </c>
       <c r="BB5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BC5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BD5" t="s">
         <v>84</v>
@@ -1734,10 +1734,10 @@
         <v>84</v>
       </c>
       <c r="BN5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP5" t="s">
         <v>84</v>
